--- a/public/data/HmTypeP2P.xlsx
+++ b/public/data/HmTypeP2P.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22451" windowHeight="9767" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="22451" windowHeight="9767" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidateMakingNoBR" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <sheet name="EditHMField" sheetId="8" r:id="rId7"/>
     <sheet name="Delete" sheetId="9" r:id="rId8"/>
     <sheet name="HMFieldHallInvalid" sheetId="10" r:id="rId9"/>
-    <sheet name="PMCLineData" sheetId="11" r:id="rId10"/>
-    <sheet name="MakingItemEditable" sheetId="12" r:id="rId11"/>
+    <sheet name="MakingItemEditable" sheetId="12" r:id="rId10"/>
+    <sheet name="PMCLineData" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249">
   <si>
     <t>testCaseName</t>
   </si>
@@ -228,128 +228,563 @@
     <t>Purch Trans Price (100% Purity)</t>
   </si>
   <si>
-    <t xml:space="preserve">TC_1
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>1.Verify Making No field through P2P process-Gold
+2.Navigation of batch Registration</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>PR000001455</t>
+  </si>
+  <si>
+    <t>HmItemN</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>BAKULI_HAR</t>
+  </si>
+  <si>
+    <t>3 PADAR</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>2500.000</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>A STONE</t>
+  </si>
+  <si>
+    <t>A_STONE</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>PO Succesfully Compleate.</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Fixed Rate</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>1.Verify Making No field through P2P process-Silver
+2.Navigation of batch Registration</t>
+  </si>
+  <si>
+    <t>HmItemN1</t>
+  </si>
+  <si>
+    <t>AC_PAYAL</t>
+  </si>
+  <si>
+    <t>Antique Payal</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>2,500.000</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>1.Verify Making No field through P2P process-Platinum
+2.Navigation of batch Registration</t>
+  </si>
+  <si>
+    <t>HmItemN2</t>
+  </si>
+  <si>
+    <t>RING_PT</t>
+  </si>
+  <si>
+    <t>Wedding Plain (G)</t>
+  </si>
+  <si>
+    <t>TC_32</t>
+  </si>
+  <si>
+    <t>1.Verify Making No field through P2P process-Diamond Jewellery
+2.Navigation of batch Registration</t>
+  </si>
+  <si>
+    <t>HmItemN3</t>
+  </si>
+  <si>
+    <t>D._BRACELE</t>
+  </si>
+  <si>
+    <t>Fancy</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Expected Message</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>1.Verify system throws an error "Select HM Item first." when Making Item No is blank-Gold
+2.Making Item No field should be auto field</t>
+  </si>
+  <si>
+    <t>HmItemN4</t>
+  </si>
+  <si>
+    <t>HM Item cannot be Blank</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>1.Verify system throws an error "Select HM Item first." when Making Item No is blank-Silver
+2.Verify Making Item No field should be auto field</t>
+  </si>
+  <si>
+    <t>HmItemN5</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>1.Verify system throws an error "Select HM Item first." when Making Item No is blank-Platinum
+2.Making Item No field should be auto field</t>
+  </si>
+  <si>
+    <t>HmItemN6</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>1.Verify system throws an error "Select HM Item first." when Making Item No is blank-Diamond Jewellery
+2.Making Item No field should be auto field</t>
+  </si>
+  <si>
+    <t>HmItemN7</t>
+  </si>
+  <si>
+    <t>ItemTypeCode</t>
+  </si>
+  <si>
+    <t>ItemTypeName</t>
+  </si>
+  <si>
+    <t>FineItem</t>
+  </si>
+  <si>
+    <t>PrimaryItem</t>
+  </si>
+  <si>
+    <t>HmItem</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Verify add Hm field in Item Master-GOLD</t>
+  </si>
+  <si>
+    <t>Gold_T</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>FINE_GOLD</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_11
 </t>
   </si>
   <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>Verify Making No field through P2P process-Gold</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>PR000001455</t>
-  </si>
-  <si>
-    <t>HmItemN</t>
-  </si>
-  <si>
-    <t>Arg</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>BAKULI_HAR</t>
-  </si>
-  <si>
-    <t>3 PADAR</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>2500.000</t>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t>A STONE</t>
-  </si>
-  <si>
-    <t>A_STONE</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>PO Succesfully Compleate.</t>
-  </si>
-  <si>
-    <t>HM</t>
-  </si>
-  <si>
-    <t>Fixed Rate</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Verify Making No field through P2P process-Silver</t>
-  </si>
-  <si>
-    <t>HmItemN1</t>
-  </si>
-  <si>
-    <t>AC_PAYAL</t>
-  </si>
-  <si>
-    <t>Antique Payal</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>2,500.000</t>
+    <t>Verify add Hm field in Item Master-Silver</t>
+  </si>
+  <si>
+    <t>Silver_T</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>FINE_SILVER</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>Verify add Hm field in Item Master-Platinum</t>
+  </si>
+  <si>
+    <t>Platinum_T</t>
+  </si>
+  <si>
+    <t>Platinum1</t>
+  </si>
+  <si>
+    <t>PLATINUM</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>Verify add Hm field in Item Master-Diamond Jewellery</t>
+  </si>
+  <si>
+    <t>Diamond_T</t>
+  </si>
+  <si>
+    <t>Diamond Jewellery1</t>
+  </si>
+  <si>
+    <t>FIN_GOLD</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>Verify Navigation of Item Master-GOLD</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify Navigation of Item Master-SILVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_19
+</t>
+  </si>
+  <si>
+    <t>Verify Navigation of Item Master-PLATINUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_28
+</t>
+  </si>
+  <si>
+    <t>Verify Navigation of Item Master-Diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_17
+</t>
+  </si>
+  <si>
+    <t>Verify system throws error message for duplicate record in Item Master-Gold</t>
+  </si>
+  <si>
+    <t>Gold_Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cannot create a record in Item Type Master (AcxItemType). Item Type Code: Gold, Gold. The record already exists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_18
+</t>
+  </si>
+  <si>
+    <t>Verify system throws error message for duplicate record in Item Master-Silver</t>
+  </si>
+  <si>
+    <t>Silver_Test</t>
+  </si>
+  <si>
+    <t>Verify system throws error message for duplicate record in Item Master-Platinum</t>
+  </si>
+  <si>
+    <t>Platinum_Test</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_20
+</t>
+  </si>
+  <si>
+    <t>Verify system throws error message for duplicate record in Item Master-Diamond Jewellery</t>
+  </si>
+  <si>
+    <t>Diamond_Test</t>
+  </si>
+  <si>
+    <t>Diamond Jewellery</t>
+  </si>
+  <si>
+    <t>Verify user is able to select HM Item-Gold</t>
+  </si>
+  <si>
+    <t>Gold_T1</t>
+  </si>
+  <si>
+    <t>Verify user is able to select HM Item-Silver</t>
+  </si>
+  <si>
+    <t>Silver_T2</t>
+  </si>
+  <si>
+    <t>Verify user is able to select HM Item-Platinum</t>
+  </si>
+  <si>
+    <t>Platinum_T2</t>
+  </si>
+  <si>
+    <t>Verify user is able to select HM Item-Diamond Jewellery</t>
+  </si>
+  <si>
+    <t>Diamond_T2</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Verify Hm field is editable or not-Gold</t>
+  </si>
+  <si>
+    <t>Gold_T3</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Verify Hm field is editable or not-Silver</t>
+  </si>
+  <si>
+    <t>Silver_T3</t>
+  </si>
+  <si>
+    <t>Tc_22</t>
+  </si>
+  <si>
+    <t>Verify Hm field is editable or not-Platinum</t>
+  </si>
+  <si>
+    <t>Platinum_T4</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>Verify Hm field is editable or not-Diamond Jewellery</t>
+  </si>
+  <si>
+    <t>Diamond_T4</t>
+  </si>
+  <si>
+    <t>TC_37</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Verify user is able to delete HM-Gold</t>
+  </si>
+  <si>
+    <t>Item Type Master cannot be deleted while dependent Items exist. Delete dependent Items and try again.</t>
   </si>
   <si>
     <t>TC_03</t>
   </si>
   <si>
-    <t>Verify Making No field through P2P process-Platinum</t>
-  </si>
-  <si>
-    <t>HmItemN2</t>
-  </si>
-  <si>
-    <t>RING_PT</t>
-  </si>
-  <si>
-    <t>Wedding Plain (G)</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>Verify Making No field through P2P process-Diamond Jewellery</t>
-  </si>
-  <si>
-    <t>HmItemN3</t>
-  </si>
-  <si>
-    <t>D._BRACELE</t>
-  </si>
-  <si>
-    <t>Fancy</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Expected Message</t>
+    <t>Verify HM field dropdown contains only HallMarking category form Released product-GOLD</t>
+  </si>
+  <si>
+    <t>Gold35</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>HM20</t>
+  </si>
+  <si>
+    <t>The value 'HM20' in field 'HM Item' is not found in the related table 'Extended Item Master'.</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify HM field dropdown contains only HallMarking category form Released product-Silver</t>
+  </si>
+  <si>
+    <t>Silver35</t>
+  </si>
+  <si>
+    <t>Silver4</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>Verify HM field dropdown contains only HallMarking category form Released product-Platinum</t>
+  </si>
+  <si>
+    <t>Platinum35</t>
+  </si>
+  <si>
+    <t>Platinum4</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>Verify HM field dropdown contains only HallMarking category form Released product-Diamond Jewellery</t>
+  </si>
+  <si>
+    <t>Diamond35</t>
+  </si>
+  <si>
+    <t>Diamond Jewellery4</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify Making Item No should editable-Gold</t>
+  </si>
+  <si>
+    <t>HMItemN12</t>
+  </si>
+  <si>
+    <t>HM18</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Verify Making Item No should editable-Silver</t>
+  </si>
+  <si>
+    <t>HMItemN13</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>Verify Making Item No should editable-Platinum</t>
+  </si>
+  <si>
+    <t>HMItemN14</t>
+  </si>
+  <si>
+    <t>Tc_34</t>
+  </si>
+  <si>
+    <t>Verify Making Item No should editable-Diamond Jewellery</t>
+  </si>
+  <si>
+    <t>HMItemN15</t>
+  </si>
+  <si>
+    <t>ItemCategory</t>
+  </si>
+  <si>
+    <t>MakingType</t>
+  </si>
+  <si>
+    <t>MakingRate</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Pcs</t>
+  </si>
+  <si>
+    <t>TC_06,TC_05</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>1.HallMarking entry should be correctly auto reflected in PMC tab-Gold
+2.Navigation of batch registration</t>
+  </si>
+  <si>
+    <t>Hallmarking</t>
+  </si>
+  <si>
+    <t>45.000</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>HMItemN8</t>
+  </si>
+  <si>
+    <t>TC_15,TC_14</t>
+  </si>
+  <si>
+    <t>1.HallMarking entry should be correctly auto reflected in PMC tab-Silver
+2.Navigation of batch registration</t>
+  </si>
+  <si>
+    <t>HMItemN9</t>
+  </si>
+  <si>
+    <t>TC_24,TC_23</t>
+  </si>
+  <si>
+    <t>1.HallMarking entry should be correctly auto reflected in PMC tab-Platinum
+2.Navigation of batch registration</t>
+  </si>
+  <si>
+    <t>HMItemN10</t>
+  </si>
+  <si>
+    <t>Tc_33,TC_32</t>
+  </si>
+  <si>
+    <t>1.HallMarking entry should be correctly auto reflected in PMC tab-Diamond Jewellery
+2.Navigation of batch registration</t>
+  </si>
+  <si>
+    <t>HMItemN11</t>
   </si>
   <si>
     <t xml:space="preserve">TC_5
@@ -357,478 +792,6 @@
   </si>
   <si>
     <t>Verify system throws an error "Select HM Item first." when Making Item No is blank-Gold</t>
-  </si>
-  <si>
-    <t>HmItemN4</t>
-  </si>
-  <si>
-    <t>HM Item cannot be Blank</t>
-  </si>
-  <si>
-    <t>TC_6</t>
-  </si>
-  <si>
-    <t>Verify system throws an error "Select HM Item first." when Making Item No is blank-Silver</t>
-  </si>
-  <si>
-    <t>HmItemN5</t>
-  </si>
-  <si>
-    <t>TC_7</t>
-  </si>
-  <si>
-    <t>Verify system throws an error "Select HM Item first." when Making Item No is blank-Platinum</t>
-  </si>
-  <si>
-    <t>HmItemN6</t>
-  </si>
-  <si>
-    <t>TC_8</t>
-  </si>
-  <si>
-    <t>Verify system throws an error "Select HM Item first." when Making Item No is blank-Diamond Jewellery</t>
-  </si>
-  <si>
-    <t>HmItemN7</t>
-  </si>
-  <si>
-    <t>ItemTypeCode</t>
-  </si>
-  <si>
-    <t>ItemTypeName</t>
-  </si>
-  <si>
-    <t>FineItem</t>
-  </si>
-  <si>
-    <t>PrimaryItem</t>
-  </si>
-  <si>
-    <t>HmItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_9
-</t>
-  </si>
-  <si>
-    <t>Verify add Hm field in Item Master-GOLD</t>
-  </si>
-  <si>
-    <t>Gold_T</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>FINE_GOLD</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_10
-</t>
-  </si>
-  <si>
-    <t>Verify add Hm field in Item Master-Silver</t>
-  </si>
-  <si>
-    <t>Silver_T</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>FINE_SILVER</t>
-  </si>
-  <si>
-    <t>SILVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_11
-</t>
-  </si>
-  <si>
-    <t>Verify add Hm field in Item Master-Platinum</t>
-  </si>
-  <si>
-    <t>Platinum_T</t>
-  </si>
-  <si>
-    <t>Platinum1</t>
-  </si>
-  <si>
-    <t>PLATINUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_12
-</t>
-  </si>
-  <si>
-    <t>Verify add Hm field in Item Master-Diamond Jewellery</t>
-  </si>
-  <si>
-    <t>Diamond_T</t>
-  </si>
-  <si>
-    <t>Diamond Jewellery1</t>
-  </si>
-  <si>
-    <t>FIN_GOLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_13
-</t>
-  </si>
-  <si>
-    <t>Verify Navigation of Item Master-GOLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_14
-</t>
-  </si>
-  <si>
-    <t>Verify Navigation of Item Master-SILVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_15
-</t>
-  </si>
-  <si>
-    <t>Verify Navigation of Item Master-PLATINUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_16
-</t>
-  </si>
-  <si>
-    <t>Verify Navigation of Item Master-Diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_17
-</t>
-  </si>
-  <si>
-    <t>Verify system throws error message for duplicate record in Item Master-Gold</t>
-  </si>
-  <si>
-    <t>Gold_Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Cannot create a record in Item Type Master (AcxItemType). Item Type Code: Gold, Gold. The record already exists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_18
-</t>
-  </si>
-  <si>
-    <t>Verify system throws error message for duplicate record in Item Master-Silver</t>
-  </si>
-  <si>
-    <t>Silver_Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_19
-</t>
-  </si>
-  <si>
-    <t>Verify system throws error message for duplicate record in Item Master-Platinum</t>
-  </si>
-  <si>
-    <t>Platinum_Test</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_20
-</t>
-  </si>
-  <si>
-    <t>Verify system throws error message for duplicate record in Item Master-Diamond Jewellery</t>
-  </si>
-  <si>
-    <t>Diamond_Test</t>
-  </si>
-  <si>
-    <t>Diamond Jewellery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_21
-</t>
-  </si>
-  <si>
-    <t>Verify user is able to select HM Item-Gold</t>
-  </si>
-  <si>
-    <t>Gold33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_22
-</t>
-  </si>
-  <si>
-    <t>Verify user is able to select HM Item-Silver</t>
-  </si>
-  <si>
-    <t>Silver33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_23
-</t>
-  </si>
-  <si>
-    <t>Verify user is able to select HM Item-Platinum</t>
-  </si>
-  <si>
-    <t>Platinum33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_24
-</t>
-  </si>
-  <si>
-    <t>Verify user is able to select HM Item-Diamond Jewellery</t>
-  </si>
-  <si>
-    <t>Diamond33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_25
-</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>Verify Hm field is editable or not-Gold</t>
-  </si>
-  <si>
-    <t>Gold34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_26
-</t>
-  </si>
-  <si>
-    <t>Verify Hm field is editable or not-Silver</t>
-  </si>
-  <si>
-    <t>Silver34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_27
-</t>
-  </si>
-  <si>
-    <t>Verify Hm field is editable or not-Platinum</t>
-  </si>
-  <si>
-    <t>Platinum34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_28
-</t>
-  </si>
-  <si>
-    <t>Verify Hm field is editable or not-Diamond Jewellery</t>
-  </si>
-  <si>
-    <t>Diamond34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_29
-</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Verify user is able to delete HM-Gold</t>
-  </si>
-  <si>
-    <t>Item Type Master cannot be deleted while dependent Items exist. Delete dependent Items and try again.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_30
-</t>
-  </si>
-  <si>
-    <t>Verify user is able to delete HM-Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_31
-</t>
-  </si>
-  <si>
-    <t>Verify user is able to delete HM-Platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_32
-</t>
-  </si>
-  <si>
-    <t>Verify user is able to delete HM-Diamond Jewellery</t>
-  </si>
-  <si>
-    <t>Diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_33
-</t>
-  </si>
-  <si>
-    <t>Verify HM field dropdown contains only HallMarking category form Released product-GOLD</t>
-  </si>
-  <si>
-    <t>Gold35</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>HM20</t>
-  </si>
-  <si>
-    <t>The value 'HM20' in field 'HM Item' is not found in the related table 'Extended Item Master'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_34
-</t>
-  </si>
-  <si>
-    <t>Verify HM field dropdown contains only HallMarking category form Released product-Silver</t>
-  </si>
-  <si>
-    <t>Silver35</t>
-  </si>
-  <si>
-    <t>Silver4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_35
-</t>
-  </si>
-  <si>
-    <t>Verify HM field dropdown contains only HallMarking category form Released product-Platinum</t>
-  </si>
-  <si>
-    <t>Platinum35</t>
-  </si>
-  <si>
-    <t>Platinum4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_36
-</t>
-  </si>
-  <si>
-    <t>Verify HM field dropdown contains only HallMarking category form Released product-Diamond Jewellery</t>
-  </si>
-  <si>
-    <t>Diamond35</t>
-  </si>
-  <si>
-    <t>Diamond Jewellery4</t>
-  </si>
-  <si>
-    <t>ItemCategory</t>
-  </si>
-  <si>
-    <t>MakingType</t>
-  </si>
-  <si>
-    <t>MakingRate</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Pcs</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>HallMarking entry should be correctly auto reflected in PMC tab-Gold</t>
-  </si>
-  <si>
-    <t>Hallmarking</t>
-  </si>
-  <si>
-    <t>45.000</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>HMItemN8</t>
-  </si>
-  <si>
-    <t>HallMarking entry should be correctly auto reflected in PMC tab-Silver</t>
-  </si>
-  <si>
-    <t>HMItemN9</t>
-  </si>
-  <si>
-    <t>HallMarking entry should be correctly auto reflected in PMC tab-Platinum</t>
-  </si>
-  <si>
-    <t>HMItemN10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_37
-</t>
-  </si>
-  <si>
-    <t>HallMarking entry should be correctly auto reflected in PMC tab-Diamond Jewellery</t>
-  </si>
-  <si>
-    <t>HMItemN11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_38
-</t>
-  </si>
-  <si>
-    <t>Verify Making Item No should editable-Gold</t>
-  </si>
-  <si>
-    <t>HMItemN12</t>
-  </si>
-  <si>
-    <t>HM18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_39
-</t>
-  </si>
-  <si>
-    <t>Verify Making Item No should editable-Silver</t>
-  </si>
-  <si>
-    <t>HMItemN13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_40
-</t>
-  </si>
-  <si>
-    <t>Verify Making Item No should editable-Platinum</t>
-  </si>
-  <si>
-    <t>HMItemN14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_41
-</t>
-  </si>
-  <si>
-    <t>Verify Making Item No should editable-Diamond Jewellery</t>
-  </si>
-  <si>
-    <t>HMItemN15</t>
   </si>
 </sst>
 </file>
@@ -836,10 +799,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0.000;[Red]0.000"/>
     <numFmt numFmtId="181" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="182" formatCode="0;[Red]0"/>
@@ -892,6 +855,95 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -909,60 +961,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,13 +972,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1004,35 +996,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1069,13 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,91 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,7 +1068,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,19 +1176,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,25 +1200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,6 +1259,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1314,7 +1286,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1345,21 +1343,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1373,173 +1356,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1592,7 +1555,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1600,21 +1578,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1636,6 +1599,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -1643,12 +1612,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2179,8 +2142,8 @@
   <sheetPr/>
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -2391,7 +2354,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="100.8" spans="1:67">
+    <row r="2" ht="172.8" spans="1:67">
       <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
@@ -2594,7 +2557,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" ht="100.8" spans="1:67">
+    <row r="3" ht="172.8" spans="1:67">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -2797,7 +2760,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" ht="100.8" spans="1:67">
+    <row r="4" ht="172.8" spans="1:67">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -3000,7 +2963,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" ht="115.2" spans="1:67">
+    <row r="5" ht="187.2" spans="1:67">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -3215,1117 +3178,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BT5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
-  <sheetData>
-    <row r="1" ht="43.2" spans="1:72">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="BO1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BQ1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="BR1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="BT1" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" ht="115.2" spans="1:72">
-      <c r="A2" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="9">
-        <v>250</v>
-      </c>
-      <c r="S2" s="10">
-        <v>1</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="10">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="10">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ2" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT2" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" ht="115.2" spans="1:72">
-      <c r="A3" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="R3" s="9">
-        <v>250</v>
-      </c>
-      <c r="S3" s="10">
-        <v>1</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="9">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN3" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ3" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT3" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" ht="129.6" spans="1:72">
-      <c r="A4" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="R4" s="9">
-        <v>250</v>
-      </c>
-      <c r="S4" s="10">
-        <v>1</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="9">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL4" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN4" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP4" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ4" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR4" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT4" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" ht="144" spans="1:72">
-      <c r="A5" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="R5" s="9">
-        <v>250</v>
-      </c>
-      <c r="S5" s="10">
-        <v>1</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="10">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="10">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL5" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN5" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP5" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ5" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="BR5" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT5" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -4535,13 +3391,13 @@
     </row>
     <row r="2" ht="86.4" spans="1:67">
       <c r="A2" s="4" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>70</v>
@@ -4553,7 +3409,7 @@
         <v>71</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>73</v>
@@ -4561,13 +3417,13 @@
       <c r="I2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="20" t="s">
         <v>77</v>
       </c>
       <c r="M2" s="9">
@@ -4727,7 +3583,7 @@
         <v>95</v>
       </c>
       <c r="BM2" s="18" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="BN2" t="s">
         <v>87</v>
@@ -4738,13 +3594,13 @@
     </row>
     <row r="3" ht="86.4" spans="1:67">
       <c r="A3" s="4" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>70</v>
@@ -4756,7 +3612,7 @@
         <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>73</v>
@@ -4764,13 +3620,13 @@
       <c r="I3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="34" t="s">
         <v>94</v>
       </c>
       <c r="M3" s="9">
@@ -4930,7 +3786,7 @@
         <v>95</v>
       </c>
       <c r="BM3" s="18" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="BN3" t="s">
         <v>87</v>
@@ -4941,13 +3797,13 @@
     </row>
     <row r="4" ht="86.4" spans="1:67">
       <c r="A4" s="4" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>70</v>
@@ -4959,7 +3815,7 @@
         <v>71</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>73</v>
@@ -4967,13 +3823,13 @@
       <c r="I4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="35" t="s">
         <v>94</v>
       </c>
       <c r="M4" s="9">
@@ -5133,7 +3989,7 @@
         <v>95</v>
       </c>
       <c r="BM4" s="18" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="BN4" t="s">
         <v>87</v>
@@ -5144,13 +4000,13 @@
     </row>
     <row r="5" ht="100.8" spans="1:67">
       <c r="A5" s="4" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>70</v>
@@ -5162,7 +4018,7 @@
         <v>71</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>73</v>
@@ -5170,13 +4026,13 @@
       <c r="I5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="34" t="s">
         <v>106</v>
       </c>
       <c r="M5" s="9">
@@ -5336,7 +4192,7 @@
         <v>95</v>
       </c>
       <c r="BM5" s="18" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="BN5" t="s">
         <v>87</v>
@@ -5354,12 +4210,1119 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BT5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" ht="43.2" spans="1:72">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" ht="187.2" spans="1:72">
+      <c r="A2" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="9">
+        <v>250</v>
+      </c>
+      <c r="S2" s="10">
+        <v>1</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="10">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="10">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="10">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT2" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" ht="187.2" spans="1:72">
+      <c r="A3" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="9">
+        <v>250</v>
+      </c>
+      <c r="S3" s="10">
+        <v>1</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN3" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT3" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" ht="201.6" spans="1:72">
+      <c r="A4" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="9">
+        <v>250</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP4" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT4" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" ht="216" spans="1:72">
+      <c r="A5" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="9">
+        <v>250</v>
+      </c>
+      <c r="S5" s="10">
+        <v>1</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN5" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT5" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BI2" sqref="BI2"/>
     </sheetView>
   </sheetViews>
@@ -5570,13 +5533,13 @@
     </row>
     <row r="2" ht="172.8" spans="1:67">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>70</v>
@@ -5780,8 +5743,8 @@
   <sheetPr/>
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:BO2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -5989,7 +5952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="172.8" spans="1:67">
+    <row r="2" ht="244.8" spans="1:67">
       <c r="A2" s="4" t="s">
         <v>108</v>
       </c>
@@ -6190,7 +6153,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" ht="172.8" spans="1:67">
+    <row r="3" ht="259.2" spans="1:67">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -6391,14 +6354,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" ht="172.8" spans="1:67">
+    <row r="4" ht="244.8" spans="1:67">
       <c r="A4" t="s">
         <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -6592,14 +6555,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" ht="187.2" spans="1:67">
+    <row r="5" ht="259.2" spans="1:67">
       <c r="A5" t="s">
         <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -6808,7 +6771,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -6843,13 +6806,13 @@
       </c>
     </row>
     <row r="2" ht="86.4" spans="1:8">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>127</v>
       </c>
       <c r="D2" t="s">
@@ -6869,13 +6832,13 @@
       </c>
     </row>
     <row r="3" ht="86.4" spans="1:8">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>133</v>
       </c>
       <c r="D3" t="s">
@@ -6895,13 +6858,13 @@
       </c>
     </row>
     <row r="4" ht="86.4" spans="1:8">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>139</v>
       </c>
       <c r="D4" t="s">
@@ -6921,13 +6884,13 @@
       </c>
     </row>
     <row r="5" ht="100.8" spans="1:8">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>144</v>
       </c>
       <c r="D5" t="s">
@@ -6958,7 +6921,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -6975,46 +6938,46 @@
       </c>
     </row>
     <row r="2" ht="72" spans="1:3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" ht="72" spans="1:3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="1:3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7030,7 +6993,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -7067,14 +7030,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" ht="216" spans="1:9">
-      <c r="A2" s="22" t="s">
+    <row r="2" ht="158.4" spans="1:9">
+      <c r="A2" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>157</v>
       </c>
       <c r="D2" t="s">
@@ -7096,14 +7059,14 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" ht="216" spans="1:9">
-      <c r="A3" s="22" t="s">
+    <row r="3" ht="158.4" spans="1:9">
+      <c r="A3" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>161</v>
       </c>
       <c r="D3" t="s">
@@ -7125,21 +7088,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" ht="216" spans="1:9">
-      <c r="A4" s="22" t="s">
+    <row r="4" ht="158.4" spans="1:9">
+      <c r="A4" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" t="s">
         <v>164</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>165</v>
-      </c>
-      <c r="E4" t="s">
-        <v>166</v>
       </c>
       <c r="F4" t="s">
         <v>142</v>
@@ -7154,21 +7117,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" ht="216" spans="1:9">
-      <c r="A5" s="22" t="s">
+    <row r="5" ht="172.8" spans="1:9">
+      <c r="A5" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" t="s">
         <v>168</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
       </c>
       <c r="F5" t="s">
         <v>147</v>
@@ -7195,7 +7158,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -7230,17 +7193,17 @@
       </c>
     </row>
     <row r="2" ht="86.4" spans="1:8">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
         <v>171</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" t="s">
-        <v>173</v>
       </c>
       <c r="E2" t="s">
         <v>129</v>
@@ -7256,17 +7219,17 @@
       </c>
     </row>
     <row r="3" ht="86.4" spans="1:8">
-      <c r="A3" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>175</v>
+      <c r="C3" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
         <v>135</v>
@@ -7282,20 +7245,20 @@
       </c>
     </row>
     <row r="4" ht="86.4" spans="1:8">
-      <c r="A4" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>178</v>
+      <c r="C4" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
         <v>142</v>
@@ -7308,20 +7271,20 @@
       </c>
     </row>
     <row r="5" ht="100.8" spans="1:8">
-      <c r="A5" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>181</v>
+      <c r="C5" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
         <v>147</v>
@@ -7345,7 +7308,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -7380,17 +7343,17 @@
       </c>
     </row>
     <row r="2" ht="72" spans="1:8">
-      <c r="A2" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>185</v>
+      <c r="A2" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
         <v>129</v>
@@ -7406,17 +7369,17 @@
       </c>
     </row>
     <row r="3" ht="72" spans="1:8">
-      <c r="A3" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
         <v>184</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" t="s">
-        <v>189</v>
       </c>
       <c r="E3" t="s">
         <v>135</v>
@@ -7432,20 +7395,20 @@
       </c>
     </row>
     <row r="4" ht="72" spans="1:8">
-      <c r="A4" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>191</v>
+      <c r="A4" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
         <v>142</v>
@@ -7458,20 +7421,20 @@
       </c>
     </row>
     <row r="5" ht="86.4" spans="1:8">
-      <c r="A5" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>194</v>
+      <c r="A5" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
         <v>147</v>
@@ -7492,13 +7455,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" ht="43.2" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -7530,14 +7493,14 @@
       </c>
     </row>
     <row r="2" ht="145.2" spans="1:9">
-      <c r="A2" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>198</v>
+      <c r="A2" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -7555,94 +7518,7 @@
         <v>86</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" ht="145.2" spans="1:9">
-      <c r="A3" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" ht="145.2" spans="1:9">
-      <c r="A4" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" ht="145.2" spans="1:9">
-      <c r="A5" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -7656,8 +7532,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -7692,20 +7568,20 @@
       </c>
     </row>
     <row r="2" ht="187.2" spans="1:9">
-      <c r="A2" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>208</v>
+      <c r="C2" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
         <v>130</v>
@@ -7714,27 +7590,27 @@
         <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" ht="187.2" spans="1:9">
-      <c r="A3" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>214</v>
+      <c r="C3" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
         <v>136</v>
@@ -7743,27 +7619,27 @@
         <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="187.2" spans="1:9">
-      <c r="A4" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>218</v>
+      <c r="C4" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
         <v>142</v>
@@ -7772,27 +7648,27 @@
         <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" ht="201.6" spans="1:9">
-      <c r="A5" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>222</v>
+      <c r="C5" s="21" t="s">
+        <v>210</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
         <v>147</v>
@@ -7801,10 +7677,10 @@
         <v>131</v>
       </c>
       <c r="H5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/HmTypeP2P.xlsx
+++ b/public/data/HmTypeP2P.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22451" windowHeight="9767" activeTab="1"/>
+    <workbookView windowWidth="22451" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidateMakingNoBR" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250">
   <si>
     <t>testCaseName</t>
   </si>
@@ -358,7 +358,7 @@
     <t>TC_08</t>
   </si>
   <si>
-    <t>1.Verify system throws an error "Select HM Item first." when Making Item No is blank-Gold
+    <t>1.Making Item NO field in PMC line_system throws an error "Select HM Item first." when Making Item No is blank-Gold
 2.Making Item No field should be auto field</t>
   </si>
   <si>
@@ -371,7 +371,7 @@
     <t>TC_17</t>
   </si>
   <si>
-    <t>1.Verify system throws an error "Select HM Item first." when Making Item No is blank-Silver
+    <t>1.Making Item NO field in PMC line_ system throws an error "Select HM Item first." when Making Item No is blank-Silver
 2.Verify Making Item No field should be auto field</t>
   </si>
   <si>
@@ -381,7 +381,7 @@
     <t>TC_26</t>
   </si>
   <si>
-    <t>1.Verify system throws an error "Select HM Item first." when Making Item No is blank-Platinum
+    <t>1.Making Item NO field in PMC line_ system throws an error "Select HM Item first." when Making Item No is blank-Platinum
 2.Making Item No field should be auto field</t>
   </si>
   <si>
@@ -391,7 +391,7 @@
     <t>TC_35</t>
   </si>
   <si>
-    <t>1.Verify system throws an error "Select HM Item first." when Making Item No is blank-Diamond Jewellery
+    <t>1.Making Item NO field in PMC line system throws an error "Select HM Item first." when Making Item No is blank-Diamond Jewellery
 2.Making Item No field should be auto field</t>
   </si>
   <si>
@@ -416,7 +416,7 @@
     <t>TC_02</t>
   </si>
   <si>
-    <t>Verify add Hm field in Item Master-GOLD</t>
+    <t>Verify HM item field_add Hm field in Item Master-GOLD</t>
   </si>
   <si>
     <t>Gold_T</t>
@@ -435,7 +435,7 @@
 </t>
   </si>
   <si>
-    <t>Verify add Hm field in Item Master-Silver</t>
+    <t>Verify HM item field_add Hm field in Item Master-Silver</t>
   </si>
   <si>
     <t>Silver_T</t>
@@ -453,7 +453,7 @@
     <t>TC_20</t>
   </si>
   <si>
-    <t>Verify add Hm field in Item Master-Platinum</t>
+    <t>Verify HM item field_ add Hm field in Item Master-Platinum</t>
   </si>
   <si>
     <t>Platinum_T</t>
@@ -468,7 +468,7 @@
     <t>TC_29</t>
   </si>
   <si>
-    <t>Verify add Hm field in Item Master-Diamond Jewellery</t>
+    <t>Verify HM item field_add Hm field in Item Master-Diamond Jewellery</t>
   </si>
   <si>
     <t>Diamond_T</t>
@@ -552,25 +552,25 @@
     <t>Diamond Jewellery</t>
   </si>
   <si>
-    <t>Verify user is able to select HM Item-Gold</t>
+    <t>Verify HM item field_user is able to select HM Item-Gold</t>
   </si>
   <si>
     <t>Gold_T1</t>
   </si>
   <si>
-    <t>Verify user is able to select HM Item-Silver</t>
+    <t>Verify HM item field_user is able to select HM Item-Silver</t>
   </si>
   <si>
     <t>Silver_T2</t>
   </si>
   <si>
-    <t>Verify user is able to select HM Item-Platinum</t>
+    <t>Verify HM item field_user is able to select HM Item-Platinum</t>
   </si>
   <si>
     <t>Platinum_T2</t>
   </si>
   <si>
-    <t>Verify user is able to select HM Item-Diamond Jewellery</t>
+    <t>Verify HM item field_ user is able to select HM Item-Diamond Jewellery</t>
   </si>
   <si>
     <t>Diamond_T2</t>
@@ -582,7 +582,7 @@
     <t>Edit</t>
   </si>
   <si>
-    <t>Verify Hm field is editable or not-Gold</t>
+    <t>Verify edit HM item field_ Hm field is editable or not-Gold</t>
   </si>
   <si>
     <t>Gold_T3</t>
@@ -591,7 +591,7 @@
     <t>TC_13</t>
   </si>
   <si>
-    <t>Verify Hm field is editable or not-Silver</t>
+    <t>Verify edit HM item field_Hm field is editable or not-Silver</t>
   </si>
   <si>
     <t>Silver_T3</t>
@@ -600,7 +600,7 @@
     <t>Tc_22</t>
   </si>
   <si>
-    <t>Verify Hm field is editable or not-Platinum</t>
+    <t>Verify edit HM item field_Hm field is editable or not-Platinum</t>
   </si>
   <si>
     <t>Platinum_T4</t>
@@ -609,7 +609,7 @@
     <t>TC_31</t>
   </si>
   <si>
-    <t>Verify Hm field is editable or not-Diamond Jewellery</t>
+    <t>Verify edit HM item field_ Hm field is editable or not-Diamond Jewellery</t>
   </si>
   <si>
     <t>Diamond_T4</t>
@@ -630,7 +630,7 @@
     <t>TC_03</t>
   </si>
   <si>
-    <t>Verify HM field dropdown contains only HallMarking category form Released product-GOLD</t>
+    <t>Validation of  HM item  dropdown_ HM field dropdown contains only HallMarking category form Released product-GOLD</t>
   </si>
   <si>
     <t>Gold35</t>
@@ -648,7 +648,7 @@
     <t>TC_12</t>
   </si>
   <si>
-    <t>Verify HM field dropdown contains only HallMarking category form Released product-Silver</t>
+    <t>Validation of  HM item  dropdown_ HM field dropdown contains only HallMarking category form Released product-Silver</t>
   </si>
   <si>
     <t>Silver35</t>
@@ -660,7 +660,7 @@
     <t>TC_21</t>
   </si>
   <si>
-    <t>Verify HM field dropdown contains only HallMarking category form Released product-Platinum</t>
+    <t>Validation of  HM item  dropdown_ HM field dropdown contains only HallMarking category form Released product-Platinum</t>
   </si>
   <si>
     <t>Platinum35</t>
@@ -672,7 +672,7 @@
     <t>TC_30</t>
   </si>
   <si>
-    <t>Verify HM field dropdown contains only HallMarking category form Released product-Diamond Jewellery</t>
+    <t>Validation of  HM item  dropdown_HM field dropdown contains only HallMarking category form Released product-Diamond Jewellery</t>
   </si>
   <si>
     <t>Diamond35</t>
@@ -684,7 +684,7 @@
     <t>TC_07</t>
   </si>
   <si>
-    <t>Verify Making Item No should editable-Gold</t>
+    <t>Verify Making No field_ Making Item No should editable-Gold</t>
   </si>
   <si>
     <t>HMItemN12</t>
@@ -696,7 +696,7 @@
     <t>TC_16</t>
   </si>
   <si>
-    <t>Verify Making Item No should editable-Silver</t>
+    <t>Verify Making No field_ Making Item No should editable-Silver</t>
   </si>
   <si>
     <t>HMItemN13</t>
@@ -705,7 +705,7 @@
     <t>TC_25</t>
   </si>
   <si>
-    <t>Verify Making Item No should editable-Platinum</t>
+    <t>Verify Making No field_Making Item No should editable-Platinum</t>
   </si>
   <si>
     <t>HMItemN14</t>
@@ -714,7 +714,7 @@
     <t>Tc_34</t>
   </si>
   <si>
-    <t>Verify Making Item No should editable-Diamond Jewellery</t>
+    <t>Verify Making No field_ Making Item No should editable-Diamond Jewellery</t>
   </si>
   <si>
     <t>HMItemN15</t>
@@ -741,7 +741,7 @@
     <t>View</t>
   </si>
   <si>
-    <t>1.HallMarking entry should be correctly auto reflected in PMC tab-Gold
+    <t>1.Verify PMC tab in batch registration_HallMarking entry should be correctly auto reflected in PMC tab-Gold
 2.Navigation of batch registration</t>
   </si>
   <si>
@@ -760,17 +760,20 @@
     <t>TC_15,TC_14</t>
   </si>
   <si>
-    <t>1.HallMarking entry should be correctly auto reflected in PMC tab-Silver
+    <t>1.Verify PMC tab in batch registration_HallMarking entry should be correctly auto reflected in PMC tab-Silver
 2.Navigation of batch registration</t>
   </si>
   <si>
+    <t>35.000</t>
+  </si>
+  <si>
     <t>HMItemN9</t>
   </si>
   <si>
     <t>TC_24,TC_23</t>
   </si>
   <si>
-    <t>1.HallMarking entry should be correctly auto reflected in PMC tab-Platinum
+    <t>1.Verify PMC tab in batch registration_HallMarking entry should be correctly auto reflected in PMC tab-Platinum
 2.Navigation of batch registration</t>
   </si>
   <si>
@@ -780,7 +783,7 @@
     <t>Tc_33,TC_32</t>
   </si>
   <si>
-    <t>1.HallMarking entry should be correctly auto reflected in PMC tab-Diamond Jewellery
+    <t>1.Verify PMC tab in batch registration_HallMarking entry should be correctly auto reflected in PMC tab-Diamond Jewellery
 2.Navigation of batch registration</t>
   </si>
   <si>
@@ -799,12 +802,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.000;[Red]0.000"/>
-    <numFmt numFmtId="181" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="182" formatCode="0;[Red]0"/>
     <numFmt numFmtId="183" formatCode="#,##0.000;[Red]#,##0.000"/>
   </numFmts>
@@ -863,7 +866,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,10 +880,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -893,7 +897,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,9 +905,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -915,7 +919,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,37 +957,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,27 +979,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1026,7 +1029,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,43 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,19 +1095,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,37 +1149,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,19 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,13 +1197,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,6 +1296,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1303,17 +1321,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1335,24 +1342,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1361,148 +1364,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1563,10 +1566,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1605,10 +1608,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -2142,8 +2145,8 @@
   <sheetPr/>
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -3181,7 +3184,7 @@
   <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -3389,7 +3392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="86.4" spans="1:67">
+    <row r="2" ht="115.2" spans="1:67">
       <c r="A2" s="4" t="s">
         <v>213</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="1:67">
+    <row r="3" ht="115.2" spans="1:67">
       <c r="A3" s="4" t="s">
         <v>217</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" ht="86.4" spans="1:67">
+    <row r="4" ht="129.6" spans="1:67">
       <c r="A4" s="4" t="s">
         <v>220</v>
       </c>
@@ -3998,7 +4001,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" ht="100.8" spans="1:67">
+    <row r="5" ht="129.6" spans="1:67">
       <c r="A5" s="4" t="s">
         <v>223</v>
       </c>
@@ -4216,7 +4219,7 @@
   <dimension ref="A1:BT5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -4439,7 +4442,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="187.2" spans="1:72">
+    <row r="2" ht="259.2" spans="1:72">
       <c r="A2" s="19" t="s">
         <v>231</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" ht="187.2" spans="1:72">
+    <row r="3" ht="259.2" spans="1:72">
       <c r="A3" s="19" t="s">
         <v>238</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>234</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>236</v>
@@ -4692,7 +4695,7 @@
         <v>71</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>73</v>
@@ -4875,15 +4878,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" ht="201.6" spans="1:72">
+    <row r="4" ht="273.6" spans="1:72">
       <c r="A4" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>232</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
         <v>234</v>
@@ -4910,7 +4913,7 @@
         <v>71</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>73</v>
@@ -5093,15 +5096,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" ht="216" spans="1:72">
+    <row r="5" ht="288" spans="1:72">
       <c r="A5" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>232</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
         <v>234</v>
@@ -5128,7 +5131,7 @@
         <v>71</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>73</v>
@@ -5533,13 +5536,13 @@
     </row>
     <row r="2" ht="172.8" spans="1:67">
       <c r="A2" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>70</v>
@@ -5743,8 +5746,8 @@
   <sheetPr/>
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -5952,7 +5955,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="244.8" spans="1:67">
+    <row r="2" ht="288" spans="1:67">
       <c r="A2" s="4" t="s">
         <v>108</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" ht="259.2" spans="1:67">
+    <row r="3" ht="302.4" spans="1:67">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" ht="244.8" spans="1:67">
+    <row r="4" ht="288" spans="1:67">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" ht="259.2" spans="1:67">
+    <row r="5" ht="302.4" spans="1:67">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -6770,8 +6773,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -6805,7 +6808,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" ht="86.4" spans="1:8">
+    <row r="2" ht="100.8" spans="1:8">
       <c r="A2" s="19" t="s">
         <v>126</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="1:8">
+    <row r="3" ht="100.8" spans="1:8">
       <c r="A3" s="19" t="s">
         <v>132</v>
       </c>
@@ -6857,7 +6860,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" ht="86.4" spans="1:8">
+    <row r="4" ht="100.8" spans="1:8">
       <c r="A4" s="19" t="s">
         <v>138</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" ht="100.8" spans="1:8">
+    <row r="5" ht="115.2" spans="1:8">
       <c r="A5" s="19" t="s">
         <v>143</v>
       </c>
@@ -6921,7 +6924,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -7157,8 +7160,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -7192,7 +7195,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" ht="86.4" spans="1:8">
+    <row r="2" ht="100.8" spans="1:8">
       <c r="A2" s="19" t="s">
         <v>126</v>
       </c>
@@ -7218,7 +7221,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="1:8">
+    <row r="3" ht="100.8" spans="1:8">
       <c r="A3" s="19" t="s">
         <v>132</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" ht="86.4" spans="1:8">
+    <row r="4" ht="100.8" spans="1:8">
       <c r="A4" s="19" t="s">
         <v>138</v>
       </c>
@@ -7270,7 +7273,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" ht="100.8" spans="1:8">
+    <row r="5" ht="129.6" spans="1:8">
       <c r="A5" s="19" t="s">
         <v>143</v>
       </c>
@@ -7308,7 +7311,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -7342,7 +7345,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" ht="72" spans="1:8">
+    <row r="2" ht="115.2" spans="1:8">
       <c r="A2" s="19" t="s">
         <v>178</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:8">
+    <row r="3" ht="115.2" spans="1:8">
       <c r="A3" s="19" t="s">
         <v>182</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" ht="72" spans="1:8">
+    <row r="4" ht="115.2" spans="1:8">
       <c r="A4" s="19" t="s">
         <v>185</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" ht="86.4" spans="1:8">
+    <row r="5" ht="129.6" spans="1:8">
       <c r="A5" s="19" t="s">
         <v>188</v>
       </c>
@@ -7533,7 +7536,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -7567,7 +7570,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" ht="187.2" spans="1:9">
+    <row r="2" ht="244.8" spans="1:9">
       <c r="A2" s="19" t="s">
         <v>195</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" ht="187.2" spans="1:9">
+    <row r="3" ht="244.8" spans="1:9">
       <c r="A3" s="19" t="s">
         <v>201</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" ht="187.2" spans="1:9">
+    <row r="4" ht="244.8" spans="1:9">
       <c r="A4" s="19" t="s">
         <v>205</v>
       </c>
@@ -7654,7 +7657,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" ht="201.6" spans="1:9">
+    <row r="5" ht="259.2" spans="1:9">
       <c r="A5" s="19" t="s">
         <v>209</v>
       </c>
